--- a/利润表/688698.xlsx
+++ b/利润表/688698.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>SECUCODE</t>
   </si>
@@ -160,12 +160,18 @@
     <t>688698</t>
   </si>
   <si>
+    <t>016020</t>
+  </si>
+  <si>
     <t>10000066823</t>
   </si>
   <si>
     <t>伟创电气</t>
   </si>
   <si>
+    <t>输配电气</t>
+  </si>
+  <si>
     <t>kcb</t>
   </si>
   <si>
@@ -175,9 +181,6 @@
     <t>069001001006</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -187,7 +190,7 @@
     <t>2020-12-10 00:00:00</t>
   </si>
   <si>
-    <t>2020-06-30 00:00:00</t>
+    <t>2018-12-31 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -698,74 +701,98 @@
       <c r="B2" t="s">
         <v>47</v>
       </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O2">
-        <v>50617294.1</v>
+        <v>35280810.94</v>
       </c>
       <c r="P2">
-        <v>262191956.26</v>
+        <v>356957902.59</v>
       </c>
       <c r="Q2">
-        <v>205900948.32</v>
+        <v>327187085.94</v>
+      </c>
+      <c r="R2">
+        <v>14.7328855341</v>
       </c>
       <c r="S2">
-        <v>155850337.9</v>
+        <v>215733299.24</v>
       </c>
       <c r="T2">
-        <v>155850337.9</v>
+        <v>215733299.24</v>
+      </c>
+      <c r="U2">
+        <v>13.5900026975</v>
       </c>
       <c r="V2">
-        <v>17668135.55</v>
+        <v>31920365.73</v>
       </c>
       <c r="W2">
-        <v>11265827.36</v>
+        <v>36024593.67</v>
       </c>
       <c r="X2">
-        <v>561745.54</v>
+        <v>4077299.42</v>
       </c>
       <c r="Y2">
-        <v>56780838.75</v>
+        <v>41997699.94</v>
       </c>
       <c r="Z2">
-        <v>57593260.83</v>
+        <v>40063373.14</v>
       </c>
       <c r="AA2">
-        <v>6975966.73</v>
+        <v>4782562.2</v>
       </c>
       <c r="AG2">
-        <v>1354733.81</v>
+        <v>2696053.72</v>
+      </c>
+      <c r="AP2">
+        <v>10.5628665377</v>
+      </c>
+      <c r="AQ2">
+        <v>22.672314652783</v>
+      </c>
+      <c r="AR2">
+        <v>11.618739289642</v>
       </c>
       <c r="AS2">
-        <v>49110194.1</v>
+        <v>10510410.94</v>
+      </c>
+      <c r="AT2">
+        <v>-57.972831169339</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/688698.xlsx
+++ b/利润表/688698.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>35280810.94</v>
+        <v>73964805.98999999</v>
       </c>
       <c r="P2" t="n">
-        <v>356957902.59</v>
+        <v>419294553.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>327187085.94</v>
+        <v>341673363.44</v>
       </c>
       <c r="R2" t="n">
-        <v>14.7328855341</v>
+        <v>26.9368250212</v>
       </c>
       <c r="S2" t="n">
-        <v>215733299.24</v>
+        <v>250886563.97</v>
       </c>
       <c r="T2" t="n">
-        <v>215733299.24</v>
+        <v>250886563.97</v>
       </c>
       <c r="U2" t="n">
-        <v>13.5900026975</v>
+        <v>30.3328387271</v>
       </c>
       <c r="V2" t="n">
-        <v>31920365.73</v>
+        <v>31224572.59</v>
       </c>
       <c r="W2" t="n">
-        <v>36024593.67</v>
+        <v>19123494.68</v>
       </c>
       <c r="X2" t="n">
-        <v>4077299.42</v>
+        <v>1751668.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>41997699.94</v>
+        <v>80624470.20999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>40063373.14</v>
+        <v>82960097.61</v>
       </c>
       <c r="AA2" t="n">
-        <v>4782562.2</v>
+        <v>8995291.619999999</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>2696053.72</v>
+        <v>2191714.64</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>10.5628665377</v>
+        <v>29.8732504331</v>
       </c>
       <c r="AQ2" t="n">
-        <v>22.672314652783</v>
+        <v>42.45921690275</v>
       </c>
       <c r="AR2" t="n">
-        <v>11.618739289642</v>
+        <v>42.42</v>
       </c>
       <c r="AS2" t="n">
-        <v>10510410.94</v>
+        <v>70736440.70999999</v>
       </c>
       <c r="AT2" t="n">
-        <v>-57.972831169339</v>
+        <v>40.127216881439</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/688698.xlsx
+++ b/利润表/688698.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,52 +729,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-10 00:00:00</t>
+          <t>2020-12-24 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>73964805.98999999</v>
+        <v>57553819.08</v>
       </c>
       <c r="P2" t="n">
-        <v>419294553.5</v>
+        <v>446235472.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>341673363.44</v>
+        <v>389999005.12</v>
       </c>
       <c r="R2" t="n">
-        <v>26.9368250212</v>
+        <v>19.1975545121</v>
       </c>
       <c r="S2" t="n">
-        <v>250886563.97</v>
+        <v>271347423.17</v>
       </c>
       <c r="T2" t="n">
-        <v>250886563.97</v>
+        <v>271347423.17</v>
       </c>
       <c r="U2" t="n">
-        <v>30.3328387271</v>
+        <v>25.7791097276</v>
       </c>
       <c r="V2" t="n">
-        <v>31224572.59</v>
+        <v>41522510.4</v>
       </c>
       <c r="W2" t="n">
-        <v>19123494.68</v>
+        <v>27948094.87</v>
       </c>
       <c r="X2" t="n">
-        <v>1751668.4</v>
+        <v>2322600.43</v>
       </c>
       <c r="Y2" t="n">
-        <v>80624470.20999999</v>
+        <v>62675558.63</v>
       </c>
       <c r="Z2" t="n">
-        <v>82960097.61</v>
+        <v>63629216.28</v>
       </c>
       <c r="AA2" t="n">
-        <v>8995291.619999999</v>
+        <v>6075397.2</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>2191714.64</v>
+        <v>3903528.56</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>29.8732504331</v>
+        <v>25.0106717829</v>
       </c>
       <c r="AQ2" t="n">
-        <v>42.45921690275</v>
+        <v>49.235693191631</v>
       </c>
       <c r="AR2" t="n">
-        <v>42.42</v>
+        <v>63.130658129935</v>
       </c>
       <c r="AS2" t="n">
-        <v>70736440.70999999</v>
+        <v>59431719.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>40.127216881439</v>
+        <v>465.456482522652</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/688698.xlsx
+++ b/利润表/688698.xlsx
@@ -734,47 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>57553819.08</v>
+        <v>31608322.37</v>
       </c>
       <c r="P2" t="n">
-        <v>446235472.01</v>
+        <v>322855144.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>389999005.12</v>
-      </c>
-      <c r="R2" t="n">
-        <v>19.1975545121</v>
-      </c>
+        <v>285172890.42</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>271347423.17</v>
+        <v>189922787.32</v>
       </c>
       <c r="T2" t="n">
-        <v>271347423.17</v>
-      </c>
-      <c r="U2" t="n">
-        <v>25.7791097276</v>
-      </c>
+        <v>189922787.32</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>41522510.4</v>
+        <v>30026260.11</v>
       </c>
       <c r="W2" t="n">
-        <v>27948094.87</v>
+        <v>22022054.01</v>
       </c>
       <c r="X2" t="n">
-        <v>2322600.43</v>
+        <v>5545226.85</v>
       </c>
       <c r="Y2" t="n">
-        <v>62675558.63</v>
+        <v>34235679.06</v>
       </c>
       <c r="Z2" t="n">
-        <v>63629216.28</v>
+        <v>33660628.27</v>
       </c>
       <c r="AA2" t="n">
-        <v>6075397.2</v>
+        <v>2052305.9</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>3903528.56</v>
+        <v>3818369.87</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,21 +788,13 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>25.0106717829</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>49.235693191631</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>63.130658129935</v>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>59431719.08</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>465.456482522652</v>
-      </c>
+        <v>25008822.37</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
